--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.253501</v>
+        <v>45.01222466666667</v>
       </c>
       <c r="H2">
-        <v>87.760503</v>
+        <v>135.036674</v>
       </c>
       <c r="I2">
-        <v>0.7876335333413836</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="J2">
-        <v>0.7876335333413838</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>691.429830677631</v>
+        <v>86.37424299028955</v>
       </c>
       <c r="R2">
-        <v>6222.868476098679</v>
+        <v>777.368186912606</v>
       </c>
       <c r="S2">
-        <v>0.05377839357653909</v>
+        <v>0.004881860389190356</v>
       </c>
       <c r="T2">
-        <v>0.05377839357653909</v>
+        <v>0.004881860389190356</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.253501</v>
+        <v>45.01222466666667</v>
       </c>
       <c r="H3">
-        <v>87.760503</v>
+        <v>135.036674</v>
       </c>
       <c r="I3">
-        <v>0.7876335333413836</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="J3">
-        <v>0.7876335333413838</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>5303.320137158058</v>
+        <v>8160.193800154588</v>
       </c>
       <c r="R3">
-        <v>47729.88123442252</v>
+        <v>73441.74420139128</v>
       </c>
       <c r="S3">
-        <v>0.4124844271167171</v>
+        <v>0.4612130364554395</v>
       </c>
       <c r="T3">
-        <v>0.4124844271167171</v>
+        <v>0.4612130364554395</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.253501</v>
+        <v>45.01222466666667</v>
       </c>
       <c r="H4">
-        <v>87.760503</v>
+        <v>135.036674</v>
       </c>
       <c r="I4">
-        <v>0.7876335333413836</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="J4">
-        <v>0.7876335333413838</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>881.7894312807059</v>
+        <v>1307.500353111718</v>
       </c>
       <c r="R4">
-        <v>7936.104881526353</v>
+        <v>11767.50317800546</v>
       </c>
       <c r="S4">
-        <v>0.06858428286290676</v>
+        <v>0.07389974096127357</v>
       </c>
       <c r="T4">
-        <v>0.06858428286290677</v>
+        <v>0.07389974096127358</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.253501</v>
+        <v>45.01222466666667</v>
       </c>
       <c r="H5">
-        <v>87.760503</v>
+        <v>135.036674</v>
       </c>
       <c r="I5">
-        <v>0.7876335333413836</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="J5">
-        <v>0.7876335333413838</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>3250.079943262713</v>
+        <v>3685.353628536198</v>
       </c>
       <c r="R5">
-        <v>29250.71948936442</v>
+        <v>33168.18265682578</v>
       </c>
       <c r="S5">
-        <v>0.2527864297852207</v>
+        <v>0.2082956825605112</v>
       </c>
       <c r="T5">
-        <v>0.2527864297852207</v>
+        <v>0.2082956825605112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.138366333333334</v>
+        <v>2.766295666666667</v>
       </c>
       <c r="H6">
-        <v>9.415099000000001</v>
+        <v>8.298887000000001</v>
       </c>
       <c r="I6">
-        <v>0.08449869176489255</v>
+        <v>0.04598733535094824</v>
       </c>
       <c r="J6">
-        <v>0.08449869176489258</v>
+        <v>0.04598733535094825</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>74.17779165854523</v>
+        <v>5.308262274639222</v>
       </c>
       <c r="R6">
-        <v>667.6001249269071</v>
+        <v>47.774360471753</v>
       </c>
       <c r="S6">
-        <v>0.005769439352279916</v>
+        <v>0.0003000222570623058</v>
       </c>
       <c r="T6">
-        <v>0.005769439352279917</v>
+        <v>0.0003000222570623058</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.138366333333334</v>
+        <v>2.766295666666667</v>
       </c>
       <c r="H7">
-        <v>9.415099000000001</v>
+        <v>8.298887000000001</v>
       </c>
       <c r="I7">
-        <v>0.08449869176489255</v>
+        <v>0.04598733535094824</v>
       </c>
       <c r="J7">
-        <v>0.08449869176489258</v>
+        <v>0.04598733535094825</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
-        <v>568.949383984692</v>
+        <v>501.497291362371</v>
       </c>
       <c r="R7">
-        <v>5120.544455862227</v>
+        <v>4513.475622261339</v>
       </c>
       <c r="S7">
-        <v>0.04425204487788973</v>
+        <v>0.02834455825289782</v>
       </c>
       <c r="T7">
-        <v>0.04425204487788974</v>
+        <v>0.02834455825289782</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.138366333333334</v>
+        <v>2.766295666666667</v>
       </c>
       <c r="H8">
-        <v>9.415099000000001</v>
+        <v>8.298887000000001</v>
       </c>
       <c r="I8">
-        <v>0.08449869176489255</v>
+        <v>0.04598733535094824</v>
       </c>
       <c r="J8">
-        <v>0.08449869176489258</v>
+        <v>0.04598733535094825</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>94.59989982807578</v>
+        <v>80.35445010245323</v>
       </c>
       <c r="R8">
-        <v>851.399098452682</v>
+        <v>723.1900509220791</v>
       </c>
       <c r="S8">
-        <v>0.007357840838700191</v>
+        <v>0.004541622519278582</v>
       </c>
       <c r="T8">
-        <v>0.007357840838700193</v>
+        <v>0.004541622519278584</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.138366333333334</v>
+        <v>2.766295666666667</v>
       </c>
       <c r="H9">
-        <v>9.415099000000001</v>
+        <v>8.298887000000001</v>
       </c>
       <c r="I9">
-        <v>0.08449869176489255</v>
+        <v>0.04598733535094824</v>
       </c>
       <c r="J9">
-        <v>0.08449869176489258</v>
+        <v>0.04598733535094825</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>348.6742142274735</v>
+        <v>226.4890893140769</v>
       </c>
       <c r="R9">
-        <v>3138.067928047261</v>
+        <v>2038.401803826692</v>
       </c>
       <c r="S9">
-        <v>0.02711936669602271</v>
+        <v>0.01280113232170953</v>
       </c>
       <c r="T9">
-        <v>0.02711936669602272</v>
+        <v>0.01280113232170953</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.749137666666666</v>
+        <v>12.37490333333333</v>
       </c>
       <c r="H10">
-        <v>14.247413</v>
+        <v>37.12471</v>
       </c>
       <c r="I10">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="J10">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N10">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q10">
-        <v>112.2496569804788</v>
+        <v>23.74628038072111</v>
       </c>
       <c r="R10">
-        <v>1010.246912824309</v>
+        <v>213.71652342649</v>
       </c>
       <c r="S10">
-        <v>0.008730612947392739</v>
+        <v>0.001342136516256162</v>
       </c>
       <c r="T10">
-        <v>0.008730612947392741</v>
+        <v>0.001342136516256162</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.749137666666666</v>
+        <v>12.37490333333333</v>
       </c>
       <c r="H11">
-        <v>14.247413</v>
+        <v>37.12471</v>
       </c>
       <c r="I11">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="J11">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P11">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q11">
-        <v>860.9635278105402</v>
+        <v>2243.426318205505</v>
       </c>
       <c r="R11">
-        <v>7748.671750294861</v>
+        <v>20190.83686384954</v>
       </c>
       <c r="S11">
-        <v>0.06696447477289717</v>
+        <v>0.1267981483802512</v>
       </c>
       <c r="T11">
-        <v>0.06696447477289717</v>
+        <v>0.1267981483802512</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.749137666666666</v>
+        <v>12.37490333333333</v>
       </c>
       <c r="H12">
-        <v>14.247413</v>
+        <v>37.12471</v>
       </c>
       <c r="I12">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="J12">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N12">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q12">
-        <v>143.1534434857482</v>
+        <v>359.4621371833412</v>
       </c>
       <c r="R12">
-        <v>1288.380991371734</v>
+        <v>3235.15923465007</v>
       </c>
       <c r="S12">
-        <v>0.01113426393256491</v>
+        <v>0.02031675078329019</v>
       </c>
       <c r="T12">
-        <v>0.01113426393256491</v>
+        <v>0.02031675078329019</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.749137666666666</v>
+        <v>12.37490333333333</v>
       </c>
       <c r="H13">
-        <v>14.247413</v>
+        <v>37.12471</v>
       </c>
       <c r="I13">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="J13">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N13">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q13">
-        <v>527.6317893788785</v>
+        <v>1013.189088964484</v>
       </c>
       <c r="R13">
-        <v>4748.686104409906</v>
+        <v>9118.701800680359</v>
       </c>
       <c r="S13">
-        <v>0.04103842324086884</v>
+        <v>0.05726530860283952</v>
       </c>
       <c r="T13">
-        <v>0.04103842324086885</v>
+        <v>0.05726530860283952</v>
       </c>
     </row>
   </sheetData>
